--- a/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9822840C-8E21-40FE-95ED-33A4852AD2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C0CBFC-FFCE-4071-9366-B1F5B5D8EB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E1C8B4F-149D-4F53-909F-23A7B3E3D86C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C593139-400E-4AA1-A74D-C23AC9446A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
-  <si>
-    <t>Sueño recomendado en 2023 (Tasa respuesta: 97,37%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>72,58%</t>
   </si>
   <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>27,42%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
   </si>
   <si>
     <t>42,84%</t>
   </si>
   <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>77,09%</t>
   </si>
   <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>72,43%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>75,64%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,121 +251,127 @@
     <t>70,55%</t>
   </si>
   <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
     <t>66,77%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>33,23%</t>
   </si>
   <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>35,28%</t>
+    <t>35,21%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>58,68%</t>
+    <t>58,43%</t>
   </si>
   <si>
     <t>68,39%</t>
@@ -374,16 +380,19 @@
     <t>69,6%</t>
   </si>
   <si>
-    <t>71,16%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>34,17%</t>
@@ -392,13 +401,16 @@
     <t>31,61%</t>
   </si>
   <si>
-    <t>41,32%</t>
+    <t>41,57%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>28,84%</t>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C9AB3A-F973-4934-846D-F81F76C0C24C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F517C280-E4DF-4671-B463-521290FEB327}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1244,7 +1256,7 @@
         <v>708</v>
       </c>
       <c r="D10" s="7">
-        <v>798162</v>
+        <v>798163</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1346,7 +1358,7 @@
         <v>948</v>
       </c>
       <c r="D12" s="7">
-        <v>1012059</v>
+        <v>1012060</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1587,13 +1599,13 @@
         <v>1407755</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1620,13 @@
         <v>297366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>606</v>
@@ -1623,13 +1635,13 @@
         <v>403183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>945</v>
@@ -1638,13 +1650,13 @@
         <v>700549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,16 +1721,16 @@
         <v>2349</v>
       </c>
       <c r="D19" s="7">
-        <v>2424953</v>
+        <v>2424954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>3345</v>
@@ -1727,28 +1739,28 @@
         <v>2433017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5694</v>
       </c>
       <c r="N19" s="7">
-        <v>4857971</v>
+        <v>4857970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1775,13 @@
         <v>859171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1863</v>
@@ -1778,13 +1790,13 @@
         <v>1263053</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2819</v>
@@ -1793,13 +1805,13 @@
         <v>2122224</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,7 +1823,7 @@
         <v>3305</v>
       </c>
       <c r="D21" s="7">
-        <v>3284124</v>
+        <v>3284125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1841,7 +1853,7 @@
         <v>8513</v>
       </c>
       <c r="N21" s="7">
-        <v>6980195</v>
+        <v>6980194</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1855,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C0CBFC-FFCE-4071-9366-B1F5B5D8EB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{552183AA-9F16-4D52-9C53-677CDBDACDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C593139-400E-4AA1-A74D-C23AC9446A7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{076CF8FB-312B-421A-BFF7-F62757A8631E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,384 +39,1311 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>&lt;2.000hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
 </sst>
 </file>
@@ -825,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F517C280-E4DF-4671-B463-521290FEB327}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281AA0C1-4344-4562-B545-7D0B9730F0A2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -943,10 +1873,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7">
-        <v>72324</v>
+        <v>100023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +1888,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7">
-        <v>70435</v>
+        <v>91559</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +1903,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N4" s="7">
-        <v>142759</v>
+        <v>191581</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +1924,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>27321</v>
+        <v>15335</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +1939,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>52797</v>
+        <v>20401</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +1954,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>80118</v>
+        <v>35737</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>99645</v>
+        <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1990,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="I6" s="7">
-        <v>123232</v>
+        <v>111960</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +2005,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="N6" s="7">
-        <v>222877</v>
+        <v>227318</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +2028,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="D7" s="7">
-        <v>415005</v>
+        <v>491126</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +2043,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>625</v>
+        <v>458</v>
       </c>
       <c r="I7" s="7">
-        <v>392302</v>
+        <v>463979</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +2058,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1077</v>
+        <v>947</v>
       </c>
       <c r="N7" s="7">
-        <v>807308</v>
+        <v>955105</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +2079,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7">
-        <v>123354</v>
+        <v>78557</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +2094,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>349</v>
+        <v>108</v>
       </c>
       <c r="I8" s="7">
-        <v>187770</v>
+        <v>109681</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +2109,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>498</v>
+        <v>188</v>
       </c>
       <c r="N8" s="7">
-        <v>311123</v>
+        <v>188237</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="D9" s="7">
-        <v>538359</v>
+        <v>569683</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +2145,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>974</v>
+        <v>566</v>
       </c>
       <c r="I9" s="7">
-        <v>580072</v>
+        <v>573660</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +2160,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1575</v>
+        <v>1135</v>
       </c>
       <c r="N9" s="7">
-        <v>1118431</v>
+        <v>1143342</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +2183,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D10" s="7">
-        <v>798163</v>
+        <v>752278</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +2198,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>994</v>
+        <v>686</v>
       </c>
       <c r="I10" s="7">
-        <v>737499</v>
+        <v>730080</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +2213,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1702</v>
+        <v>1390</v>
       </c>
       <c r="N10" s="7">
-        <v>1535661</v>
+        <v>1482357</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +2234,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D11" s="7">
-        <v>213897</v>
+        <v>197259</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +2249,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>462</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>280681</v>
+        <v>232198</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +2264,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>702</v>
+        <v>396</v>
       </c>
       <c r="N11" s="7">
-        <v>494578</v>
+        <v>429458</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +2285,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>948</v>
+        <v>884</v>
       </c>
       <c r="D12" s="7">
-        <v>1012060</v>
+        <v>949537</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +2300,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1456</v>
+        <v>902</v>
       </c>
       <c r="I12" s="7">
-        <v>1018180</v>
+        <v>962278</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +2315,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2404</v>
+        <v>1786</v>
       </c>
       <c r="N12" s="7">
-        <v>2030239</v>
+        <v>1911815</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +2338,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="D13" s="7">
-        <v>472460</v>
+        <v>536364</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +2353,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>658</v>
+        <v>485</v>
       </c>
       <c r="I13" s="7">
-        <v>492028</v>
+        <v>473008</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +2368,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1102</v>
+        <v>989</v>
       </c>
       <c r="N13" s="7">
-        <v>964488</v>
+        <v>1009372</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +2389,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D14" s="7">
-        <v>197233</v>
+        <v>134258</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +2404,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="I14" s="7">
-        <v>338623</v>
+        <v>204522</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +2419,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>528</v>
+        <v>333</v>
       </c>
       <c r="N14" s="7">
-        <v>535856</v>
+        <v>338780</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +2440,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D15" s="7">
-        <v>669693</v>
+        <v>670622</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +2455,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>994</v>
+        <v>690</v>
       </c>
       <c r="I15" s="7">
-        <v>830651</v>
+        <v>677530</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +2470,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1630</v>
+        <v>1322</v>
       </c>
       <c r="N15" s="7">
-        <v>1500344</v>
+        <v>1348152</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1563,10 +2493,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>666</v>
+        <v>792</v>
       </c>
       <c r="D16" s="7">
-        <v>667002</v>
+        <v>751436</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1578,10 +2508,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>948</v>
+        <v>763</v>
       </c>
       <c r="I16" s="7">
-        <v>740753</v>
+        <v>791513</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1593,10 +2523,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>1614</v>
+        <v>1555</v>
       </c>
       <c r="N16" s="7">
-        <v>1407755</v>
+        <v>1542949</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1614,10 +2544,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>339</v>
+        <v>184</v>
       </c>
       <c r="D17" s="7">
-        <v>297366</v>
+        <v>172970</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1629,10 +2559,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>606</v>
+        <v>227</v>
       </c>
       <c r="I17" s="7">
-        <v>403183</v>
+        <v>240197</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1644,10 +2574,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>945</v>
+        <v>411</v>
       </c>
       <c r="N17" s="7">
-        <v>700549</v>
+        <v>413167</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1665,10 +2595,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="D18" s="7">
-        <v>964368</v>
+        <v>924406</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +2610,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1554</v>
+        <v>990</v>
       </c>
       <c r="I18" s="7">
-        <v>1143936</v>
+        <v>1031710</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +2625,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2559</v>
+        <v>1966</v>
       </c>
       <c r="N18" s="7">
-        <v>2108304</v>
+        <v>1956116</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1718,10 +2648,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2349</v>
+        <v>2580</v>
       </c>
       <c r="D19" s="7">
-        <v>2424954</v>
+        <v>2631226</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1733,10 +2663,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>3345</v>
+        <v>2496</v>
       </c>
       <c r="I19" s="7">
-        <v>2433017</v>
+        <v>2550138</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -1748,10 +2678,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>5694</v>
+        <v>5076</v>
       </c>
       <c r="N19" s="7">
-        <v>4857970</v>
+        <v>5181365</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1769,10 +2699,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="D20" s="7">
-        <v>859171</v>
+        <v>598379</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -1784,10 +2714,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>1863</v>
+        <v>779</v>
       </c>
       <c r="I20" s="7">
-        <v>1263053</v>
+        <v>807000</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1799,10 +2729,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>2819</v>
+        <v>1365</v>
       </c>
       <c r="N20" s="7">
-        <v>2122224</v>
+        <v>1405378</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -1812,6 +2742,3195 @@
       </c>
       <c r="Q20" s="7" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3166</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3229605</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3275</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3357138</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6586743</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44992B2-4651-481A-8D84-AC6D559A869C}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>92</v>
+      </c>
+      <c r="D4" s="7">
+        <v>87241</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="7">
+        <v>62</v>
+      </c>
+      <c r="I4" s="7">
+        <v>70492</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="7">
+        <v>154</v>
+      </c>
+      <c r="N4" s="7">
+        <v>157733</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28524</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="7">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7">
+        <v>40241</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="7">
+        <v>66</v>
+      </c>
+      <c r="N5" s="7">
+        <v>68765</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>122</v>
+      </c>
+      <c r="D6" s="7">
+        <v>115765</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>98</v>
+      </c>
+      <c r="I6" s="7">
+        <v>110733</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>220</v>
+      </c>
+      <c r="N6" s="7">
+        <v>226498</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>394</v>
+      </c>
+      <c r="D7" s="7">
+        <v>420070</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="7">
+        <v>372</v>
+      </c>
+      <c r="I7" s="7">
+        <v>394633</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="7">
+        <v>766</v>
+      </c>
+      <c r="N7" s="7">
+        <v>814703</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>157</v>
+      </c>
+      <c r="D8" s="7">
+        <v>166565</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="7">
+        <v>179</v>
+      </c>
+      <c r="I8" s="7">
+        <v>190512</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="7">
+        <v>336</v>
+      </c>
+      <c r="N8" s="7">
+        <v>357077</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>551</v>
+      </c>
+      <c r="D9" s="7">
+        <v>586635</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>551</v>
+      </c>
+      <c r="I9" s="7">
+        <v>585145</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1102</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1171780</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>691</v>
+      </c>
+      <c r="D10" s="7">
+        <v>749392</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="7">
+        <v>618</v>
+      </c>
+      <c r="I10" s="7">
+        <v>679517</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1309</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1428909</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>243</v>
+      </c>
+      <c r="D11" s="7">
+        <v>266572</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="7">
+        <v>321</v>
+      </c>
+      <c r="I11" s="7">
+        <v>351603</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" s="7">
+        <v>564</v>
+      </c>
+      <c r="N11" s="7">
+        <v>618174</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>934</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1015964</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>939</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1031120</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1873</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2047083</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>533</v>
+      </c>
+      <c r="D13" s="7">
+        <v>585764</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="7">
+        <v>497</v>
+      </c>
+      <c r="I13" s="7">
+        <v>547774</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1030</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1133538</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>154</v>
+      </c>
+      <c r="D14" s="7">
+        <v>169854</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="7">
+        <v>207</v>
+      </c>
+      <c r="I14" s="7">
+        <v>228418</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M14" s="7">
+        <v>361</v>
+      </c>
+      <c r="N14" s="7">
+        <v>398272</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>687</v>
+      </c>
+      <c r="D15" s="7">
+        <v>755618</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>704</v>
+      </c>
+      <c r="I15" s="7">
+        <v>776192</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1391</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1531810</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>662</v>
+      </c>
+      <c r="D16" s="7">
+        <v>686575</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="7">
+        <v>670</v>
+      </c>
+      <c r="I16" s="7">
+        <v>702780</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1332</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1389355</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>241</v>
+      </c>
+      <c r="D17" s="7">
+        <v>253003</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="7">
+        <v>327</v>
+      </c>
+      <c r="I17" s="7">
+        <v>342988</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="7">
+        <v>568</v>
+      </c>
+      <c r="N17" s="7">
+        <v>595991</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>903</v>
+      </c>
+      <c r="D18" s="7">
+        <v>939578</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>997</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1045768</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1900</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1985346</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2372</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2529041</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2219</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2395197</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4591</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4924238</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>825</v>
+      </c>
+      <c r="D20" s="7">
+        <v>884519</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1070</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1153761</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1895</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2038280</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3197</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3413560</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3289</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3548958</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6486</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6962518</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB001FC-80BC-4831-A92E-B3F3400DBCD9}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>80</v>
+      </c>
+      <c r="D4" s="7">
+        <v>82662</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="7">
+        <v>71</v>
+      </c>
+      <c r="I4" s="7">
+        <v>67609</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M4" s="7">
+        <v>151</v>
+      </c>
+      <c r="N4" s="7">
+        <v>150270</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>32297</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="7">
+        <v>44</v>
+      </c>
+      <c r="I5" s="7">
+        <v>45751</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" s="7">
+        <v>76</v>
+      </c>
+      <c r="N5" s="7">
+        <v>78049</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>112</v>
+      </c>
+      <c r="D6" s="7">
+        <v>114959</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>115</v>
+      </c>
+      <c r="I6" s="7">
+        <v>113360</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>227</v>
+      </c>
+      <c r="N6" s="7">
+        <v>228319</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>435</v>
+      </c>
+      <c r="D7" s="7">
+        <v>446336</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="7">
+        <v>390</v>
+      </c>
+      <c r="I7" s="7">
+        <v>391156</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" s="7">
+        <v>825</v>
+      </c>
+      <c r="N7" s="7">
+        <v>837492</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>102</v>
+      </c>
+      <c r="D8" s="7">
+        <v>109987</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="7">
+        <v>153</v>
+      </c>
+      <c r="I8" s="7">
+        <v>159938</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M8" s="7">
+        <v>255</v>
+      </c>
+      <c r="N8" s="7">
+        <v>269925</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>537</v>
+      </c>
+      <c r="D9" s="7">
+        <v>556323</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>543</v>
+      </c>
+      <c r="I9" s="7">
+        <v>551094</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1080</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1107417</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>763</v>
+      </c>
+      <c r="D10" s="7">
+        <v>821699</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="7">
+        <v>719</v>
+      </c>
+      <c r="I10" s="7">
+        <v>756788</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1482</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1578487</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>185</v>
+      </c>
+      <c r="D11" s="7">
+        <v>197484</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="7">
+        <v>257</v>
+      </c>
+      <c r="I11" s="7">
+        <v>284024</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="7">
+        <v>442</v>
+      </c>
+      <c r="N11" s="7">
+        <v>481507</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>948</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1019183</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>976</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1040812</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1924</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2059994</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>510</v>
+      </c>
+      <c r="D13" s="7">
+        <v>560801</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="7">
+        <v>518</v>
+      </c>
+      <c r="I13" s="7">
+        <v>542552</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1028</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1103354</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>186</v>
+      </c>
+      <c r="D14" s="7">
+        <v>198751</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="7">
+        <v>217</v>
+      </c>
+      <c r="I14" s="7">
+        <v>241511</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M14" s="7">
+        <v>403</v>
+      </c>
+      <c r="N14" s="7">
+        <v>440262</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>696</v>
+      </c>
+      <c r="D15" s="7">
+        <v>759552</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>735</v>
+      </c>
+      <c r="I15" s="7">
+        <v>784063</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1431</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1543616</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>690</v>
+      </c>
+      <c r="D16" s="7">
+        <v>689465</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="7">
+        <v>710</v>
+      </c>
+      <c r="I16" s="7">
+        <v>764994</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1400</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1454459</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>242</v>
+      </c>
+      <c r="D17" s="7">
+        <v>248102</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" s="7">
+        <v>246</v>
+      </c>
+      <c r="I17" s="7">
+        <v>275680</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M17" s="7">
+        <v>488</v>
+      </c>
+      <c r="N17" s="7">
+        <v>523782</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>932</v>
+      </c>
+      <c r="D18" s="7">
+        <v>937567</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>956</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1040674</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1888</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1978241</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2478</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2600963</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2408</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2523098</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4886</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5124061</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>747</v>
+      </c>
+      <c r="D20" s="7">
+        <v>786621</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" s="7">
+        <v>917</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1006904</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1664</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1793526</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3225</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3387584</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3325</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3530002</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6550</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6917587</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B76F2-F1E2-4D7E-A587-0C8D0B90C70B}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>80</v>
+      </c>
+      <c r="D4" s="7">
+        <v>73586</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="7">
+        <v>122</v>
+      </c>
+      <c r="I4" s="7">
+        <v>71617</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M4" s="7">
+        <v>202</v>
+      </c>
+      <c r="N4" s="7">
+        <v>145203</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26059</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="7">
+        <v>108</v>
+      </c>
+      <c r="I5" s="7">
+        <v>51615</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M5" s="7">
+        <v>143</v>
+      </c>
+      <c r="N5" s="7">
+        <v>77674</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>115</v>
+      </c>
+      <c r="D6" s="7">
+        <v>99645</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>230</v>
+      </c>
+      <c r="I6" s="7">
+        <v>123232</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>345</v>
+      </c>
+      <c r="N6" s="7">
+        <v>222877</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>459</v>
+      </c>
+      <c r="D7" s="7">
+        <v>425619</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H7" s="7">
+        <v>638</v>
+      </c>
+      <c r="I7" s="7">
+        <v>402262</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1097</v>
+      </c>
+      <c r="N7" s="7">
+        <v>827881</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>142</v>
+      </c>
+      <c r="D8" s="7">
+        <v>112740</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H8" s="7">
+        <v>336</v>
+      </c>
+      <c r="I8" s="7">
+        <v>177810</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8" s="7">
+        <v>478</v>
+      </c>
+      <c r="N8" s="7">
+        <v>290550</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>601</v>
+      </c>
+      <c r="D9" s="7">
+        <v>538359</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>974</v>
+      </c>
+      <c r="I9" s="7">
+        <v>580072</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1575</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1118431</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>722</v>
+      </c>
+      <c r="D10" s="7">
+        <v>814597</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1011</v>
+      </c>
+      <c r="I10" s="7">
+        <v>752287</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1733</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1566883</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>226</v>
+      </c>
+      <c r="D11" s="7">
+        <v>197463</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="7">
+        <v>445</v>
+      </c>
+      <c r="I11" s="7">
+        <v>265893</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M11" s="7">
+        <v>671</v>
+      </c>
+      <c r="N11" s="7">
+        <v>463356</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>948</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1012060</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1456</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1018180</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2404</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2030239</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>451</v>
+      </c>
+      <c r="D13" s="7">
+        <v>483645</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="7">
+        <v>674</v>
+      </c>
+      <c r="I13" s="7">
+        <v>502396</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1125</v>
+      </c>
+      <c r="N13" s="7">
+        <v>986041</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>185</v>
+      </c>
+      <c r="D14" s="7">
+        <v>186048</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H14" s="7">
+        <v>320</v>
+      </c>
+      <c r="I14" s="7">
+        <v>328255</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M14" s="7">
+        <v>505</v>
+      </c>
+      <c r="N14" s="7">
+        <v>514303</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>636</v>
+      </c>
+      <c r="D15" s="7">
+        <v>669693</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>994</v>
+      </c>
+      <c r="I15" s="7">
+        <v>830651</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1630</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1500344</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>687</v>
+      </c>
+      <c r="D16" s="7">
+        <v>693121</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16" s="7">
+        <v>980</v>
+      </c>
+      <c r="I16" s="7">
+        <v>768037</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1667</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1461158</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>318</v>
+      </c>
+      <c r="D17" s="7">
+        <v>271247</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H17" s="7">
+        <v>574</v>
+      </c>
+      <c r="I17" s="7">
+        <v>375899</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M17" s="7">
+        <v>892</v>
+      </c>
+      <c r="N17" s="7">
+        <v>647146</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D18" s="7">
+        <v>964368</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1554</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1143936</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2559</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2108304</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2399</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2490568</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3425</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2496598</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M19" s="7">
+        <v>5824</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4987165</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>906</v>
+      </c>
+      <c r="D20" s="7">
+        <v>793557</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1783</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1199472</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2689</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1993029</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{552183AA-9F16-4D52-9C53-677CDBDACDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD413B90-55A1-4B34-8E18-4F11F65C250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{076CF8FB-312B-421A-BFF7-F62757A8631E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D318752-B190-43A2-B924-C97086059327}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>86,71%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>13,29%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>86,21%</t>
   </si>
   <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,55 +197,55 @@
     <t>79,23%</t>
   </si>
   <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>77,54%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
   </si>
   <si>
     <t>20,77%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,7 +254,7 @@
     <t>79,98%</t>
   </si>
   <si>
-    <t>76,56%</t>
+    <t>76,79%</t>
   </si>
   <si>
     <t>83,05%</t>
@@ -263,19 +263,19 @@
     <t>69,81%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
   </si>
   <si>
     <t>20,02%</t>
@@ -284,25 +284,25 @@
     <t>16,95%</t>
   </si>
   <si>
-    <t>23,44%</t>
+    <t>23,21%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,109 +311,109 @@
     <t>81,29%</t>
   </si>
   <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>76,72%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>78,88%</t>
   </si>
   <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>18,71%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -425,133 +425,133 @@
     <t>75,36%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
   </si>
   <si>
     <t>71,61%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
   </si>
   <si>
     <t>32,56%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>69,8%</t>
   </si>
   <si>
-    <t>67,6%</t>
+    <t>67,37%</t>
   </si>
   <si>
     <t>71,74%</t>
@@ -560,19 +560,19 @@
     <t>26,24%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>30,2%</t>
@@ -581,25 +581,25 @@
     <t>28,26%</t>
   </si>
   <si>
-    <t>32,4%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>70,57%</t>
   </si>
   <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>74,0%</t>
@@ -608,31 +608,31 @@
     <t>71,62%</t>
   </si>
   <si>
-    <t>76,21%</t>
+    <t>76,34%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>23,79%</t>
+    <t>23,66%</t>
   </si>
   <si>
     <t>28,38%</t>
@@ -641,109 +641,103 @@
     <t>73,07%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>64,33%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>26,93%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>35,67%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016 (Tasa respuesta: 99,71%)</t>
@@ -752,598 +746,604 @@
     <t>71,91%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
   </si>
   <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>65,82%</t>
   </si>
   <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
     <t>76,78%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>74,98%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
     <t>30,65%</t>
   </si>
   <si>
-    <t>27,84%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>23,94%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
   </si>
   <si>
     <t>65,72%</t>
   </si>
   <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>34,28%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
   </si>
   <si>
     <t>67,14%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
+    <t>69,86%</t>
   </si>
   <si>
     <t>69,3%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>67,36%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>32,86%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>30,14%</t>
   </si>
   <si>
     <t>30,7%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
+    <t>32,64%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>71,45%</t>
   </si>
   <si>
-    <t>66,57%</t>
+    <t>67,73%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
   </si>
   <si>
     <t>28,55%</t>
   </si>
   <si>
-    <t>33,43%</t>
+    <t>32,27%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281AA0C1-4344-4562-B545-7D0B9730F0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DEAD7A-F2D6-47F0-AAB5-970951F19C1D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2818,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44992B2-4651-481A-8D84-AC6D559A869C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0320CB2A-E923-492B-999F-1F07BFB34354}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3583,7 +3583,7 @@
         <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>1332</v>
@@ -3592,13 +3592,13 @@
         <v>1389355</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3613,13 @@
         <v>253003</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>327</v>
@@ -3628,13 +3628,13 @@
         <v>342988</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>568</v>
@@ -3643,13 +3643,13 @@
         <v>595991</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3717,13 @@
         <v>2529041</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>2219</v>
@@ -3732,13 +3732,13 @@
         <v>2395197</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>4591</v>
@@ -3747,13 +3747,13 @@
         <v>4924238</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3768,13 @@
         <v>884519</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>1070</v>
@@ -3783,13 +3783,13 @@
         <v>1153761</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>1895</v>
@@ -3798,13 +3798,13 @@
         <v>2038280</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB001FC-80BC-4831-A92E-B3F3400DBCD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72955653-7F18-4B9C-8855-D41DF29AD89E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4005,13 @@
         <v>82662</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -4020,13 +4020,13 @@
         <v>67609</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>151</v>
@@ -4035,13 +4035,13 @@
         <v>150270</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4056,13 @@
         <v>32297</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>44</v>
@@ -4071,13 +4071,13 @@
         <v>45751</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -4086,13 +4086,13 @@
         <v>78049</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>446336</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>390</v>
@@ -4175,13 +4175,13 @@
         <v>391156</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>825</v>
@@ -4190,13 +4190,13 @@
         <v>837492</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4211,13 @@
         <v>109987</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -4226,13 +4226,13 @@
         <v>159938</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>255</v>
@@ -4241,13 +4241,13 @@
         <v>269925</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4315,13 @@
         <v>821699</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>719</v>
@@ -4330,13 +4330,13 @@
         <v>756788</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>1482</v>
@@ -4345,13 +4345,13 @@
         <v>1578487</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>197484</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -4381,13 +4381,13 @@
         <v>284024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>442</v>
@@ -4396,13 +4396,13 @@
         <v>481507</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4470,13 @@
         <v>560801</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>518</v>
@@ -4485,13 +4485,13 @@
         <v>542552</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>1028</v>
@@ -4500,13 +4500,13 @@
         <v>1103354</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4521,13 @@
         <v>198751</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -4536,10 +4536,10 @@
         <v>241511</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>300</v>
@@ -4780,13 +4780,13 @@
         <v>2600963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>2408</v>
@@ -4795,13 +4795,13 @@
         <v>2523098</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>4886</v>
@@ -4810,10 +4810,10 @@
         <v>5124061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>328</v>
@@ -4831,13 +4831,13 @@
         <v>786621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>917</v>
@@ -4849,10 +4849,10 @@
         <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>1664</v>
@@ -4861,13 +4861,13 @@
         <v>1793526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B76F2-F1E2-4D7E-A587-0C8D0B90C70B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3C134F-E695-48DB-8CD1-D808A6BC068B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5068,13 +5068,13 @@
         <v>73586</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
         <v>122</v>
@@ -5083,13 +5083,13 @@
         <v>71617</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
@@ -5098,13 +5098,13 @@
         <v>145203</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5119,13 @@
         <v>26059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>108</v>
@@ -5134,13 +5134,13 @@
         <v>51615</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
@@ -5149,13 +5149,13 @@
         <v>77674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5223,13 @@
         <v>425619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>638</v>
@@ -5238,13 +5238,13 @@
         <v>402262</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>1097</v>
@@ -5253,13 +5253,13 @@
         <v>827881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5274,13 @@
         <v>112740</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>336</v>
@@ -5289,13 +5289,13 @@
         <v>177810</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>478</v>
@@ -5304,13 +5304,13 @@
         <v>290550</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5375,7 @@
         <v>722</v>
       </c>
       <c r="D10" s="7">
-        <v>814597</v>
+        <v>814596</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>369</v>
@@ -5477,7 +5477,7 @@
         <v>948</v>
       </c>
       <c r="D12" s="7">
-        <v>1012060</v>
+        <v>1012059</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5706,10 +5706,10 @@
         <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>1667</v>
@@ -5718,13 +5718,13 @@
         <v>1461158</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5739,13 @@
         <v>271247</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>574</v>
@@ -5754,13 +5754,13 @@
         <v>375899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>892</v>
@@ -5769,13 +5769,13 @@
         <v>647146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,16 +5840,16 @@
         <v>2399</v>
       </c>
       <c r="D19" s="7">
-        <v>2490568</v>
+        <v>2490567</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>3425</v>
@@ -5858,28 +5858,28 @@
         <v>2496598</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>5824</v>
       </c>
       <c r="N19" s="7">
-        <v>4987165</v>
+        <v>4987166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5894,13 @@
         <v>793557</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1783</v>
@@ -5927,7 +5927,7 @@
         <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>434</v>
@@ -5942,7 +5942,7 @@
         <v>3305</v>
       </c>
       <c r="D21" s="7">
-        <v>3284125</v>
+        <v>3284124</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5972,7 +5972,7 @@
         <v>8513</v>
       </c>
       <c r="N21" s="7">
-        <v>6980194</v>
+        <v>6980195</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD413B90-55A1-4B34-8E18-4F11F65C250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA4D3B9-5722-439B-A84E-CFF9ED67AAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D318752-B190-43A2-B924-C97086059327}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{706B5589-E86D-4F82-892D-EEB0C7B1F47F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>24,48%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>79,98%</t>
@@ -422,112 +365,58 @@
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
   </si>
   <si>
     <t>73,76%</t>
@@ -707,9 +596,6 @@
     <t>70,72%</t>
   </si>
   <si>
-    <t>69,55%</t>
-  </si>
-  <si>
     <t>71,73%</t>
   </si>
   <si>
@@ -737,613 +623,526 @@
     <t>28,27%</t>
   </si>
   <si>
-    <t>30,45%</t>
-  </si>
-  <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
   </si>
   <si>
     <t>75,63%</t>
   </si>
   <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DEAD7A-F2D6-47F0-AAB5-970951F19C1D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF3CFED-1E7D-44DA-A615-00979AA249F7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>580</v>
       </c>
       <c r="D4" s="7">
-        <v>100023</v>
+        <v>591149</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>104</v>
+        <v>562</v>
       </c>
       <c r="I4" s="7">
-        <v>91559</v>
+        <v>555538</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>195</v>
+        <v>1142</v>
       </c>
       <c r="N4" s="7">
-        <v>191581</v>
+        <v>1146686</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7">
-        <v>15335</v>
+        <v>93892</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I5" s="7">
-        <v>20401</v>
+        <v>130082</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="N5" s="7">
-        <v>35737</v>
+        <v>223974</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>685041</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>127</v>
+        <v>693</v>
       </c>
       <c r="I6" s="7">
-        <v>111960</v>
+        <v>685620</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>232</v>
+        <v>1367</v>
       </c>
       <c r="N6" s="7">
-        <v>227318</v>
+        <v>1370660</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>489</v>
+        <v>704</v>
       </c>
       <c r="D7" s="7">
-        <v>491126</v>
+        <v>752278</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2043,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>458</v>
+        <v>686</v>
       </c>
       <c r="I7" s="7">
-        <v>463979</v>
+        <v>730080</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2058,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>947</v>
+        <v>1390</v>
       </c>
       <c r="N7" s="7">
-        <v>955105</v>
+        <v>1482357</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2079,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>78557</v>
+        <v>197259</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2094,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="I8" s="7">
-        <v>109681</v>
+        <v>232198</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2109,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>396</v>
       </c>
       <c r="N8" s="7">
-        <v>188237</v>
+        <v>429458</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>569</v>
+        <v>884</v>
       </c>
       <c r="D9" s="7">
-        <v>569683</v>
+        <v>949537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>566</v>
+        <v>902</v>
       </c>
       <c r="I9" s="7">
-        <v>573660</v>
+        <v>962278</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1135</v>
+        <v>1786</v>
       </c>
       <c r="N9" s="7">
-        <v>1143342</v>
+        <v>1911815</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>704</v>
+        <v>504</v>
       </c>
       <c r="D10" s="7">
-        <v>752278</v>
+        <v>536364</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2198,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>686</v>
+        <v>485</v>
       </c>
       <c r="I10" s="7">
-        <v>730080</v>
+        <v>473008</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2213,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1390</v>
+        <v>989</v>
       </c>
       <c r="N10" s="7">
-        <v>1482357</v>
+        <v>1009372</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2234,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
-        <v>197259</v>
+        <v>134258</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2249,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I11" s="7">
-        <v>232198</v>
+        <v>204522</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2264,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="N11" s="7">
-        <v>429458</v>
+        <v>338780</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2285,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>884</v>
+        <v>632</v>
       </c>
       <c r="D12" s="7">
-        <v>949537</v>
+        <v>670622</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>902</v>
+        <v>690</v>
       </c>
       <c r="I12" s="7">
-        <v>962278</v>
+        <v>677530</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1786</v>
+        <v>1322</v>
       </c>
       <c r="N12" s="7">
-        <v>1911815</v>
+        <v>1348152</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>504</v>
+        <v>792</v>
       </c>
       <c r="D13" s="7">
-        <v>536364</v>
+        <v>751436</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2353,10 +2152,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>485</v>
+        <v>763</v>
       </c>
       <c r="I13" s="7">
-        <v>473008</v>
+        <v>791513</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2368,10 +2167,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>989</v>
+        <v>1555</v>
       </c>
       <c r="N13" s="7">
-        <v>1009372</v>
+        <v>1542949</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2389,10 +2188,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7">
-        <v>134258</v>
+        <v>172970</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2404,10 +2203,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="I14" s="7">
-        <v>204522</v>
+        <v>240197</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2419,10 +2218,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="N14" s="7">
-        <v>338780</v>
+        <v>413167</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2440,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>632</v>
+        <v>976</v>
       </c>
       <c r="D15" s="7">
-        <v>670622</v>
+        <v>924406</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>690</v>
+        <v>990</v>
       </c>
       <c r="I15" s="7">
-        <v>677530</v>
+        <v>1031710</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1322</v>
+        <v>1966</v>
       </c>
       <c r="N15" s="7">
-        <v>1348152</v>
+        <v>1956116</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>792</v>
+        <v>2580</v>
       </c>
       <c r="D16" s="7">
-        <v>751436</v>
+        <v>2631226</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2496</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2550138</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>763</v>
-      </c>
-      <c r="I16" s="7">
-        <v>791513</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5076</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5181365</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1555</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1542949</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>184</v>
+        <v>586</v>
       </c>
       <c r="D17" s="7">
-        <v>172970</v>
+        <v>598379</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>779</v>
+      </c>
+      <c r="I17" s="7">
+        <v>807000</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>227</v>
-      </c>
-      <c r="I17" s="7">
-        <v>240197</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1365</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1405378</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>411</v>
-      </c>
-      <c r="N17" s="7">
-        <v>413167</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>976</v>
+        <v>3166</v>
       </c>
       <c r="D18" s="7">
-        <v>924406</v>
+        <v>3229605</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>990</v>
+        <v>3275</v>
       </c>
       <c r="I18" s="7">
-        <v>1031710</v>
+        <v>3357138</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1966</v>
+        <v>6441</v>
       </c>
       <c r="N18" s="7">
-        <v>1956116</v>
+        <v>6586743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2580</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2631226</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2496</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2550138</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5076</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5181365</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>586</v>
-      </c>
-      <c r="D20" s="7">
-        <v>598379</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>779</v>
-      </c>
-      <c r="I20" s="7">
-        <v>807000</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1365</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1405378</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3166</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3229605</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3275</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3357138</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6441</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6586743</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0320CB2A-E923-492B-999F-1F07BFB34354}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705D91B7-A435-4BCA-9B33-550726D0CC9C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>92</v>
+        <v>486</v>
       </c>
       <c r="D4" s="7">
-        <v>87241</v>
+        <v>507311</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>62</v>
+        <v>434</v>
       </c>
       <c r="I4" s="7">
-        <v>70492</v>
+        <v>465125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>154</v>
+        <v>920</v>
       </c>
       <c r="N4" s="7">
-        <v>157733</v>
+        <v>972436</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>28524</v>
+        <v>195089</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="I5" s="7">
-        <v>40241</v>
+        <v>230753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>66</v>
+        <v>402</v>
       </c>
       <c r="N5" s="7">
-        <v>68765</v>
+        <v>425842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>702400</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>649</v>
       </c>
       <c r="I6" s="7">
-        <v>110733</v>
+        <v>695878</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1322</v>
       </c>
       <c r="N6" s="7">
-        <v>226498</v>
+        <v>1398278</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>394</v>
+        <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>420070</v>
+        <v>749391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>372</v>
+        <v>618</v>
       </c>
       <c r="I7" s="7">
-        <v>394633</v>
+        <v>679517</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>766</v>
+        <v>1309</v>
       </c>
       <c r="N7" s="7">
-        <v>814703</v>
+        <v>1428909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="D8" s="7">
-        <v>166565</v>
+        <v>266572</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>190512</v>
+        <v>351603</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>336</v>
+        <v>564</v>
       </c>
       <c r="N8" s="7">
-        <v>357077</v>
+        <v>618174</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>551</v>
+        <v>934</v>
       </c>
       <c r="D9" s="7">
-        <v>586635</v>
+        <v>1015963</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1031120</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1102</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1171780</v>
+        <v>2047083</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3246,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>691</v>
+        <v>533</v>
       </c>
       <c r="D10" s="7">
-        <v>749392</v>
+        <v>585764</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>618</v>
+        <v>497</v>
       </c>
       <c r="I10" s="7">
-        <v>679517</v>
+        <v>547774</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>1309</v>
+        <v>1030</v>
       </c>
       <c r="N10" s="7">
-        <v>1428909</v>
+        <v>1133538</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7">
-        <v>266572</v>
+        <v>169854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="I11" s="7">
-        <v>351603</v>
+        <v>228418</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>564</v>
+        <v>361</v>
       </c>
       <c r="N11" s="7">
-        <v>618174</v>
+        <v>398272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>934</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1015964</v>
+        <v>755618</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1031120</v>
+        <v>776192</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>2047083</v>
+        <v>1531810</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,49 +3044,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>533</v>
+        <v>662</v>
       </c>
       <c r="D13" s="7">
-        <v>585764</v>
+        <v>686575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>497</v>
+        <v>670</v>
       </c>
       <c r="I13" s="7">
-        <v>547774</v>
+        <v>702780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
-        <v>1030</v>
+        <v>1332</v>
       </c>
       <c r="N13" s="7">
-        <v>1133538</v>
+        <v>1389355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>169854</v>
+        <v>253003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>207</v>
+        <v>327</v>
       </c>
       <c r="I14" s="7">
-        <v>228418</v>
+        <v>342988</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>361</v>
+        <v>568</v>
       </c>
       <c r="N14" s="7">
-        <v>398272</v>
+        <v>595991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>903</v>
       </c>
       <c r="D15" s="7">
-        <v>755618</v>
+        <v>939578</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>776192</v>
+        <v>1045768</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1391</v>
+        <v>1900</v>
       </c>
       <c r="N15" s="7">
-        <v>1531810</v>
+        <v>1985346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>662</v>
+        <v>2372</v>
       </c>
       <c r="D16" s="7">
-        <v>686575</v>
+        <v>2529041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>670</v>
+        <v>2219</v>
       </c>
       <c r="I16" s="7">
-        <v>702780</v>
+        <v>2395197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>1332</v>
+        <v>4591</v>
       </c>
       <c r="N16" s="7">
-        <v>1389355</v>
+        <v>4924238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>241</v>
+        <v>825</v>
       </c>
       <c r="D17" s="7">
-        <v>253003</v>
+        <v>884519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
-        <v>327</v>
+        <v>1070</v>
       </c>
       <c r="I17" s="7">
-        <v>342988</v>
+        <v>1153761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>568</v>
+        <v>1895</v>
       </c>
       <c r="N17" s="7">
-        <v>595991</v>
+        <v>2038279</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>903</v>
+        <v>3197</v>
       </c>
       <c r="D18" s="7">
-        <v>939578</v>
+        <v>3413560</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3289</v>
       </c>
       <c r="I18" s="7">
-        <v>1045768</v>
+        <v>3548958</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1900</v>
+        <v>6486</v>
       </c>
       <c r="N18" s="7">
-        <v>1985346</v>
+        <v>6962517</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2372</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2529041</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2219</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2395197</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4591</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4924238</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>825</v>
-      </c>
-      <c r="D20" s="7">
-        <v>884519</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1070</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1153761</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1895</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2038280</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3197</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3413560</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3289</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3548958</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6486</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6962518</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72955653-7F18-4B9C-8855-D41DF29AD89E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3BE95A-7A13-4138-8D62-4EC5FB63E18F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="D4" s="7">
-        <v>82662</v>
+        <v>528997</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>71</v>
+        <v>461</v>
       </c>
       <c r="I4" s="7">
-        <v>67609</v>
+        <v>458764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>151</v>
+        <v>976</v>
       </c>
       <c r="N4" s="7">
-        <v>150270</v>
+        <v>987762</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="D5" s="7">
-        <v>32297</v>
+        <v>142285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="I5" s="7">
-        <v>45751</v>
+        <v>205690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="N5" s="7">
-        <v>78049</v>
+        <v>347974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>649</v>
       </c>
       <c r="D6" s="7">
-        <v>114959</v>
+        <v>671282</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>658</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>664454</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>227</v>
+        <v>1307</v>
       </c>
       <c r="N6" s="7">
-        <v>228319</v>
+        <v>1335736</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>435</v>
+        <v>763</v>
       </c>
       <c r="D7" s="7">
-        <v>446336</v>
+        <v>821699</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>390</v>
+        <v>719</v>
       </c>
       <c r="I7" s="7">
-        <v>391156</v>
+        <v>756788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>825</v>
+        <v>1482</v>
       </c>
       <c r="N7" s="7">
-        <v>837492</v>
+        <v>1578487</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D8" s="7">
-        <v>109987</v>
+        <v>197484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="I8" s="7">
-        <v>159938</v>
+        <v>284024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="N8" s="7">
-        <v>269925</v>
+        <v>481507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>537</v>
+        <v>948</v>
       </c>
       <c r="D9" s="7">
-        <v>556323</v>
+        <v>1019183</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>543</v>
+        <v>976</v>
       </c>
       <c r="I9" s="7">
-        <v>551094</v>
+        <v>1040812</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1080</v>
+        <v>1924</v>
       </c>
       <c r="N9" s="7">
-        <v>1107417</v>
+        <v>2059994</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>763</v>
+        <v>510</v>
       </c>
       <c r="D10" s="7">
-        <v>821699</v>
+        <v>560801</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>719</v>
+        <v>518</v>
       </c>
       <c r="I10" s="7">
-        <v>756788</v>
+        <v>542552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>1482</v>
+        <v>1028</v>
       </c>
       <c r="N10" s="7">
-        <v>1578487</v>
+        <v>1103354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7">
-        <v>197484</v>
+        <v>198751</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="I11" s="7">
-        <v>284024</v>
+        <v>241511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>481507</v>
+        <v>440262</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>948</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1019183</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>735</v>
       </c>
       <c r="I12" s="7">
-        <v>1040812</v>
+        <v>784063</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1924</v>
+        <v>1431</v>
       </c>
       <c r="N12" s="7">
-        <v>2059994</v>
+        <v>1543616</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4464,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>510</v>
+        <v>690</v>
       </c>
       <c r="D13" s="7">
-        <v>560801</v>
+        <v>689465</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>518</v>
+        <v>710</v>
       </c>
       <c r="I13" s="7">
-        <v>542552</v>
+        <v>764994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>1028</v>
+        <v>1400</v>
       </c>
       <c r="N13" s="7">
-        <v>1103354</v>
+        <v>1454459</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D14" s="7">
-        <v>198751</v>
+        <v>248102</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>241511</v>
+        <v>275680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>403</v>
+        <v>488</v>
       </c>
       <c r="N14" s="7">
-        <v>440262</v>
+        <v>523782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>735</v>
+        <v>956</v>
       </c>
       <c r="I15" s="7">
-        <v>784063</v>
+        <v>1040674</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1431</v>
+        <v>1888</v>
       </c>
       <c r="N15" s="7">
-        <v>1543616</v>
+        <v>1978241</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>690</v>
+        <v>2478</v>
       </c>
       <c r="D16" s="7">
-        <v>689465</v>
+        <v>2600963</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>710</v>
+        <v>2408</v>
       </c>
       <c r="I16" s="7">
-        <v>764994</v>
+        <v>2523098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
-        <v>1400</v>
+        <v>4886</v>
       </c>
       <c r="N16" s="7">
-        <v>1454459</v>
+        <v>5124061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>242</v>
+        <v>747</v>
       </c>
       <c r="D17" s="7">
-        <v>248102</v>
+        <v>786621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
+        <v>917</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1006904</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="I17" s="7">
-        <v>275680</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>488</v>
+        <v>1664</v>
       </c>
       <c r="N17" s="7">
-        <v>523782</v>
+        <v>1793526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3225</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3387584</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>956</v>
+        <v>3325</v>
       </c>
       <c r="I18" s="7">
-        <v>1040674</v>
+        <v>3530002</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1888</v>
+        <v>6550</v>
       </c>
       <c r="N18" s="7">
-        <v>1978241</v>
+        <v>6917587</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2478</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2600963</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2408</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2523098</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4886</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5124061</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>747</v>
-      </c>
-      <c r="D20" s="7">
-        <v>786621</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="7">
-        <v>917</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1006904</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1664</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1793526</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3225</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3387584</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3325</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3530002</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6550</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6917587</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3C134F-E695-48DB-8CD1-D808A6BC068B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E40F5C-3A54-4A3E-AD50-6BBE730E1151}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="D4" s="7">
-        <v>73586</v>
+        <v>486818</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>122</v>
+        <v>760</v>
       </c>
       <c r="I4" s="7">
-        <v>71617</v>
+        <v>439024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>202</v>
+        <v>1299</v>
       </c>
       <c r="N4" s="7">
-        <v>145203</v>
+        <v>925842</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="D5" s="7">
-        <v>26059</v>
+        <v>135226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>444</v>
       </c>
       <c r="I5" s="7">
-        <v>51615</v>
+        <v>217579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>143</v>
+        <v>621</v>
       </c>
       <c r="N5" s="7">
-        <v>77674</v>
+        <v>352805</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>716</v>
       </c>
       <c r="D6" s="7">
-        <v>99645</v>
+        <v>622044</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>230</v>
+        <v>1204</v>
       </c>
       <c r="I6" s="7">
-        <v>123232</v>
+        <v>656603</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>345</v>
+        <v>1920</v>
       </c>
       <c r="N6" s="7">
-        <v>222877</v>
+        <v>1278647</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>459</v>
+        <v>722</v>
       </c>
       <c r="D7" s="7">
-        <v>425619</v>
+        <v>965770</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
-        <v>638</v>
+        <v>1011</v>
       </c>
       <c r="I7" s="7">
-        <v>402262</v>
+        <v>673534</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
-        <v>1097</v>
+        <v>1733</v>
       </c>
       <c r="N7" s="7">
-        <v>827881</v>
+        <v>1639304</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7">
-        <v>112740</v>
+        <v>197133</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>336</v>
+        <v>445</v>
       </c>
       <c r="I8" s="7">
-        <v>177810</v>
+        <v>245787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>478</v>
+        <v>671</v>
       </c>
       <c r="N8" s="7">
-        <v>290550</v>
+        <v>442920</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>601</v>
+        <v>948</v>
       </c>
       <c r="D9" s="7">
-        <v>538359</v>
+        <v>1162903</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>974</v>
+        <v>1456</v>
       </c>
       <c r="I9" s="7">
-        <v>580072</v>
+        <v>919321</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1575</v>
+        <v>2404</v>
       </c>
       <c r="N9" s="7">
-        <v>1118431</v>
+        <v>2082224</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>722</v>
+        <v>451</v>
       </c>
       <c r="D10" s="7">
-        <v>814596</v>
+        <v>466464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>1011</v>
+        <v>674</v>
       </c>
       <c r="I10" s="7">
-        <v>752287</v>
+        <v>486920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>1733</v>
+        <v>1125</v>
       </c>
       <c r="N10" s="7">
-        <v>1566883</v>
+        <v>953384</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="D11" s="7">
-        <v>197463</v>
+        <v>179637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
-        <v>445</v>
+        <v>320</v>
       </c>
       <c r="I11" s="7">
-        <v>265893</v>
+        <v>406440</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>671</v>
+        <v>505</v>
       </c>
       <c r="N11" s="7">
-        <v>463356</v>
+        <v>586077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>948</v>
+        <v>636</v>
       </c>
       <c r="D12" s="7">
-        <v>1012059</v>
+        <v>646101</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1456</v>
+        <v>994</v>
       </c>
       <c r="I12" s="7">
-        <v>1018180</v>
+        <v>893360</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2404</v>
+        <v>1630</v>
       </c>
       <c r="N12" s="7">
-        <v>2030239</v>
+        <v>1539461</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5527,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>451</v>
+        <v>687</v>
       </c>
       <c r="D13" s="7">
-        <v>483645</v>
+        <v>663126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
-        <v>674</v>
+        <v>980</v>
       </c>
       <c r="I13" s="7">
-        <v>502396</v>
+        <v>747977</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
-        <v>1125</v>
+        <v>1667</v>
       </c>
       <c r="N13" s="7">
-        <v>986041</v>
+        <v>1411102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="D14" s="7">
-        <v>186048</v>
+        <v>262706</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>320</v>
+        <v>574</v>
       </c>
       <c r="I14" s="7">
-        <v>328255</v>
+        <v>341188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>505</v>
+        <v>892</v>
       </c>
       <c r="N14" s="7">
-        <v>514303</v>
+        <v>603895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>636</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>669693</v>
+        <v>925832</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>994</v>
+        <v>1554</v>
       </c>
       <c r="I15" s="7">
-        <v>830651</v>
+        <v>1089165</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1630</v>
+        <v>2559</v>
       </c>
       <c r="N15" s="7">
-        <v>1500344</v>
+        <v>2014997</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>687</v>
+        <v>2399</v>
       </c>
       <c r="D16" s="7">
-        <v>693121</v>
+        <v>2582177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>980</v>
+        <v>3425</v>
       </c>
       <c r="I16" s="7">
-        <v>768037</v>
+        <v>2347455</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>1667</v>
+        <v>5824</v>
       </c>
       <c r="N16" s="7">
-        <v>1461158</v>
+        <v>4929632</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>318</v>
+        <v>906</v>
       </c>
       <c r="D17" s="7">
-        <v>271247</v>
+        <v>774702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
-        <v>574</v>
+        <v>1783</v>
       </c>
       <c r="I17" s="7">
-        <v>375899</v>
+        <v>1210995</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>892</v>
+        <v>2689</v>
       </c>
       <c r="N17" s="7">
-        <v>647146</v>
+        <v>1985697</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3305</v>
       </c>
       <c r="D18" s="7">
-        <v>964368</v>
+        <v>3356879</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1554</v>
+        <v>5208</v>
       </c>
       <c r="I18" s="7">
-        <v>1143936</v>
+        <v>3558450</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2559</v>
+        <v>8513</v>
       </c>
       <c r="N18" s="7">
-        <v>2108304</v>
+        <v>6915329</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2399</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2490567</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3425</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2496598</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5824</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4987166</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>906</v>
-      </c>
-      <c r="D20" s="7">
-        <v>793557</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1783</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1199472</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2689</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1993029</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3305</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3284124</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5208</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3696070</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8513</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980195</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
